--- a/data/coefficient/105.xlsx
+++ b/data/coefficient/105.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>start_time</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>congestion_coefficient</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1248,7 +1251,7 @@
     <col min="14" max="18" width="14.1111111111111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1303,8 +1306,11 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>45413.4944444444</v>
       </c>
@@ -1365,8 +1371,11 @@
         <f t="shared" ref="R2:R57" si="1">(0.33*N2+0.33*P2+0.33*O2)/L2</f>
         <v>0.325150617519196</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>45413.4979166667</v>
       </c>
@@ -1427,8 +1436,11 @@
         <f t="shared" si="1"/>
         <v>0.369627254264653</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>45413.5013888889</v>
       </c>
@@ -1489,8 +1501,11 @@
         <f t="shared" si="1"/>
         <v>0.321782939380262</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>45413.5048611111</v>
       </c>
@@ -1551,8 +1566,11 @@
         <f t="shared" si="1"/>
         <v>0.321740875478563</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>45413.5083333333</v>
       </c>
@@ -1613,8 +1631,11 @@
         <f t="shared" si="1"/>
         <v>0.372283552641199</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>45413.5118055556</v>
       </c>
@@ -1675,8 +1696,11 @@
         <f t="shared" si="1"/>
         <v>0.284142219932223</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>45413.5152777778</v>
       </c>
@@ -1737,8 +1761,11 @@
         <f t="shared" si="1"/>
         <v>0.260277347560059</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>45413.51875</v>
       </c>
@@ -1799,8 +1826,11 @@
         <f t="shared" si="1"/>
         <v>0.370644613018331</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>45413.5222222222</v>
       </c>
@@ -1861,8 +1891,11 @@
         <f t="shared" si="1"/>
         <v>0.376577935524345</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>45413.5256944444</v>
       </c>
@@ -1923,8 +1956,11 @@
         <f t="shared" si="1"/>
         <v>0.416422055233874</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>45413.5291666667</v>
       </c>
@@ -1985,8 +2021,11 @@
         <f t="shared" si="1"/>
         <v>0.303883420186358</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>45413.5326388889</v>
       </c>
@@ -2047,8 +2086,11 @@
         <f t="shared" si="1"/>
         <v>0.281433975408875</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>45413.5361111111</v>
       </c>
@@ -2109,8 +2151,11 @@
         <f t="shared" si="1"/>
         <v>0.28822589798006</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>45413.5395833333</v>
       </c>
@@ -2171,8 +2216,11 @@
         <f t="shared" si="1"/>
         <v>0.201439128816606</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>45413.5430555556</v>
       </c>
@@ -2233,8 +2281,11 @@
         <f t="shared" si="1"/>
         <v>0.239513432096345</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>45413.5465277778</v>
       </c>
@@ -2295,8 +2346,11 @@
         <f t="shared" si="1"/>
         <v>0.240254113012901</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>45413.55</v>
       </c>
@@ -2357,8 +2411,11 @@
         <f t="shared" si="1"/>
         <v>0.228763957056301</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>45413.5534722222</v>
       </c>
@@ -2419,8 +2476,11 @@
         <f t="shared" si="1"/>
         <v>0.277454510795102</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>45413.5569444444</v>
       </c>
@@ -2481,8 +2541,11 @@
         <f t="shared" si="1"/>
         <v>0.20220156719986</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>45413.5604166667</v>
       </c>
@@ -2543,8 +2606,11 @@
         <f t="shared" si="1"/>
         <v>0.296911480628467</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>45413.5638888889</v>
       </c>
@@ -2605,8 +2671,11 @@
         <f t="shared" si="1"/>
         <v>0.384763902539441</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>45413.5673611111</v>
       </c>
@@ -2667,8 +2736,11 @@
         <f t="shared" si="1"/>
         <v>0.376101242749117</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>45413.5708333333</v>
       </c>
@@ -2729,8 +2801,11 @@
         <f t="shared" si="1"/>
         <v>0.312794457586874</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>45413.5743055556</v>
       </c>
@@ -2791,8 +2866,11 @@
         <f t="shared" si="1"/>
         <v>0.373806709908439</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>45413.5777777778</v>
       </c>
@@ -2853,8 +2931,11 @@
         <f t="shared" si="1"/>
         <v>0.231898572535704</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>45413.58125</v>
       </c>
@@ -2915,8 +2996,11 @@
         <f t="shared" si="1"/>
         <v>0.0464352901876958</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>45413.5847222222</v>
       </c>
@@ -2977,8 +3061,11 @@
         <f t="shared" si="1"/>
         <v>0.0683745246572734</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>45413.5881944444</v>
       </c>
@@ -3039,8 +3126,11 @@
         <f t="shared" si="1"/>
         <v>0.0309285092618038</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>45413.5916666667</v>
       </c>
@@ -3101,8 +3191,11 @@
         <f t="shared" si="1"/>
         <v>0.147491789755122</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <v>45413.5951388889</v>
       </c>
@@ -3163,8 +3256,11 @@
         <f t="shared" si="1"/>
         <v>0.0484065819579374</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <v>45413.5986111111</v>
       </c>
@@ -3225,8 +3321,11 @@
         <f t="shared" si="1"/>
         <v>0.070600848623014</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>45413.6020833333</v>
       </c>
@@ -3287,8 +3386,11 @@
         <f t="shared" si="1"/>
         <v>0.114928321356192</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>45413.6055555556</v>
       </c>
@@ -3349,8 +3451,11 @@
         <f t="shared" si="1"/>
         <v>0.076336208260712</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>45413.6090277778</v>
       </c>
@@ -3411,8 +3516,11 @@
         <f t="shared" si="1"/>
         <v>0.117322939483849</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>45413.6125</v>
       </c>
@@ -3473,8 +3581,11 @@
         <f t="shared" si="1"/>
         <v>0.142457073763564</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>45413.6159722222</v>
       </c>
@@ -3535,8 +3646,11 @@
         <f t="shared" si="1"/>
         <v>0.0880036442691103</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>45413.6194444444</v>
       </c>
@@ -3597,8 +3711,11 @@
         <f t="shared" si="1"/>
         <v>0.0963689040370911</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>45413.6229166667</v>
       </c>
@@ -3659,8 +3776,11 @@
         <f t="shared" si="1"/>
         <v>0.135242709572013</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>45413.6263888889</v>
       </c>
@@ -3721,8 +3841,11 @@
         <f t="shared" si="1"/>
         <v>0.228893449869757</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>45413.6298611111</v>
       </c>
@@ -3783,8 +3906,11 @@
         <f t="shared" si="1"/>
         <v>0.0524128786905396</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>45413.6333333333</v>
       </c>
@@ -3845,8 +3971,11 @@
         <f t="shared" si="1"/>
         <v>0.0705615684192406</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>45413.6368055556</v>
       </c>
@@ -3907,8 +4036,11 @@
         <f t="shared" si="1"/>
         <v>0.114537118835354</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>45413.6402777778</v>
       </c>
@@ -3969,8 +4101,11 @@
         <f t="shared" si="1"/>
         <v>0.118753785982983</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>45413.64375</v>
       </c>
@@ -4031,8 +4166,11 @@
         <f t="shared" si="1"/>
         <v>0.11487367278664</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>45413.6472222222</v>
       </c>
@@ -4092,6 +4230,9 @@
       <c r="R46">
         <f t="shared" si="1"/>
         <v>0.11879841483323</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/coefficient/105.xlsx
+++ b/data/coefficient/105.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>start_time</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>is_spot</t>
+  </si>
+  <si>
+    <t>is_service_area</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S46"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="$A2:$XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1251,7 +1257,7 @@
     <col min="14" max="18" width="14.1111111111111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1309,8 +1315,14 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>45413.4944444444</v>
       </c>
@@ -1374,8 +1386,14 @@
       <c r="S2">
         <v>1</v>
       </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>45413.4979166667</v>
       </c>
@@ -1439,8 +1457,14 @@
       <c r="S3">
         <v>1</v>
       </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>45413.5013888889</v>
       </c>
@@ -1504,8 +1528,14 @@
       <c r="S4">
         <v>1</v>
       </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>45413.5048611111</v>
       </c>
@@ -1569,8 +1599,14 @@
       <c r="S5">
         <v>1</v>
       </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>45413.5083333333</v>
       </c>
@@ -1634,8 +1670,14 @@
       <c r="S6">
         <v>1</v>
       </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>45413.5118055556</v>
       </c>
@@ -1699,8 +1741,14 @@
       <c r="S7">
         <v>1</v>
       </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>45413.5152777778</v>
       </c>
@@ -1764,8 +1812,14 @@
       <c r="S8">
         <v>1</v>
       </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>45413.51875</v>
       </c>
@@ -1829,8 +1883,14 @@
       <c r="S9">
         <v>1</v>
       </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>45413.5222222222</v>
       </c>
@@ -1894,8 +1954,14 @@
       <c r="S10">
         <v>1</v>
       </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>45413.5256944444</v>
       </c>
@@ -1959,8 +2025,14 @@
       <c r="S11">
         <v>1</v>
       </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>45413.5291666667</v>
       </c>
@@ -2024,8 +2096,14 @@
       <c r="S12">
         <v>1</v>
       </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>45413.5326388889</v>
       </c>
@@ -2089,8 +2167,14 @@
       <c r="S13">
         <v>1</v>
       </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>45413.5361111111</v>
       </c>
@@ -2154,8 +2238,14 @@
       <c r="S14">
         <v>1</v>
       </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>45413.5395833333</v>
       </c>
@@ -2219,8 +2309,14 @@
       <c r="S15">
         <v>1</v>
       </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>45413.5430555556</v>
       </c>
@@ -2284,8 +2380,14 @@
       <c r="S16">
         <v>1</v>
       </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>45413.5465277778</v>
       </c>
@@ -2349,8 +2451,14 @@
       <c r="S17">
         <v>1</v>
       </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>45413.55</v>
       </c>
@@ -2414,8 +2522,14 @@
       <c r="S18">
         <v>1</v>
       </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>45413.5534722222</v>
       </c>
@@ -2479,8 +2593,14 @@
       <c r="S19">
         <v>1</v>
       </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>45413.5569444444</v>
       </c>
@@ -2544,8 +2664,14 @@
       <c r="S20">
         <v>1</v>
       </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>45413.5604166667</v>
       </c>
@@ -2609,8 +2735,14 @@
       <c r="S21">
         <v>1</v>
       </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>45413.5638888889</v>
       </c>
@@ -2674,8 +2806,14 @@
       <c r="S22">
         <v>1</v>
       </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>45413.5673611111</v>
       </c>
@@ -2739,8 +2877,14 @@
       <c r="S23">
         <v>1</v>
       </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>45413.5708333333</v>
       </c>
@@ -2804,8 +2948,14 @@
       <c r="S24">
         <v>1</v>
       </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>45413.5743055556</v>
       </c>
@@ -2869,8 +3019,14 @@
       <c r="S25">
         <v>1</v>
       </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>45413.5777777778</v>
       </c>
@@ -2934,8 +3090,14 @@
       <c r="S26">
         <v>1</v>
       </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>45413.58125</v>
       </c>
@@ -2999,8 +3161,14 @@
       <c r="S27">
         <v>1</v>
       </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>45413.5847222222</v>
       </c>
@@ -3064,8 +3232,14 @@
       <c r="S28">
         <v>1</v>
       </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>45413.5881944444</v>
       </c>
@@ -3129,8 +3303,14 @@
       <c r="S29">
         <v>1</v>
       </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>45413.5916666667</v>
       </c>
@@ -3194,8 +3374,14 @@
       <c r="S30">
         <v>1</v>
       </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>45413.5951388889</v>
       </c>
@@ -3259,8 +3445,14 @@
       <c r="S31">
         <v>1</v>
       </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>45413.5986111111</v>
       </c>
@@ -3324,8 +3516,14 @@
       <c r="S32">
         <v>1</v>
       </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:21">
       <c r="A33" s="1">
         <v>45413.6020833333</v>
       </c>
@@ -3389,8 +3587,14 @@
       <c r="S33">
         <v>1</v>
       </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:21">
       <c r="A34" s="1">
         <v>45413.6055555556</v>
       </c>
@@ -3454,8 +3658,14 @@
       <c r="S34">
         <v>1</v>
       </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:21">
       <c r="A35" s="1">
         <v>45413.6090277778</v>
       </c>
@@ -3519,8 +3729,14 @@
       <c r="S35">
         <v>1</v>
       </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:21">
       <c r="A36" s="1">
         <v>45413.6125</v>
       </c>
@@ -3584,8 +3800,14 @@
       <c r="S36">
         <v>1</v>
       </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:21">
       <c r="A37" s="1">
         <v>45413.6159722222</v>
       </c>
@@ -3649,8 +3871,14 @@
       <c r="S37">
         <v>1</v>
       </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:21">
       <c r="A38" s="1">
         <v>45413.6194444444</v>
       </c>
@@ -3714,8 +3942,14 @@
       <c r="S38">
         <v>1</v>
       </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:21">
       <c r="A39" s="1">
         <v>45413.6229166667</v>
       </c>
@@ -3779,8 +4013,14 @@
       <c r="S39">
         <v>1</v>
       </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:21">
       <c r="A40" s="1">
         <v>45413.6263888889</v>
       </c>
@@ -3844,8 +4084,14 @@
       <c r="S40">
         <v>1</v>
       </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:21">
       <c r="A41" s="1">
         <v>45413.6298611111</v>
       </c>
@@ -3909,8 +4155,14 @@
       <c r="S41">
         <v>1</v>
       </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:21">
       <c r="A42" s="1">
         <v>45413.6333333333</v>
       </c>
@@ -3974,8 +4226,14 @@
       <c r="S42">
         <v>1</v>
       </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:21">
       <c r="A43" s="1">
         <v>45413.6368055556</v>
       </c>
@@ -4039,8 +4297,14 @@
       <c r="S43">
         <v>1</v>
       </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:21">
       <c r="A44" s="1">
         <v>45413.6402777778</v>
       </c>
@@ -4104,8 +4368,14 @@
       <c r="S44">
         <v>1</v>
       </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:21">
       <c r="A45" s="1">
         <v>45413.64375</v>
       </c>
@@ -4169,8 +4439,14 @@
       <c r="S45">
         <v>1</v>
       </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:21">
       <c r="A46" s="1">
         <v>45413.6472222222</v>
       </c>
@@ -4233,6 +4509,12 @@
       </c>
       <c r="S46">
         <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
